--- a/biology/Botanique/Wisteria/Wisteria.xlsx
+++ b/biology/Botanique/Wisteria/Wisteria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Glycines
 Wisteria est un genre de plantes dicotylédones de la famille des Fabaceae (Légumineuses), sous-famille des Faboideae, originaire d'Extrême-Orient et d'Amérique du Nord, qui compte sept à neuf espèces acceptées.
@@ -518,9 +530,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, Wisteria, est un hommage de Thomas Nuttall à Caspar Wistar (1761-1818), médecin anatomiste américain de Philadelphie. La lettre « e » de Wisteria (au lieu du nom attendu, Wistaria) est le résultat d'une coquille d'imprimerie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, Wisteria, est un hommage de Thomas Nuttall à Caspar Wistar (1761-1818), médecin anatomiste américain de Philadelphie. La lettre « e » de Wisteria (au lieu du nom attendu, Wistaria) est le résultat d'une coquille d'imprimerie.
 </t>
         </is>
       </c>
@@ -549,15 +563,17 @@
           <t>Caractéristiques générales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les plantes du genre Wisteria sont des lianes à feuilles caduques. Elles peuvent croître jusqu'à vingt mètres de haut et dix mètres à l'horizontal. Le spécimen de Wisteria le plus étendu au monde a été planté en 1894 et se trouve à Sierra Madre dans le comté de Los Angeles (Californie ): il couvre une superficie de plus de 0,4 hectare et son poids est estimé à 250 tonnes[2].
-Selon les espèces, les Wisteria grimpent en s'enroulant autour de leur support (plantes volubiles) soit dans le sens des aiguilles d'une montre (par exemple Wisteria floribunda), soit dans le sens contraire (par exemple Wisteria sinensis)[3].
-Les feuilles alternes, composées  imparipennées, présentent des folioles opposées, à marge entière, avec une foliole terminale à l'extrémité du rachis. Les stipules sont toujours présentes[4].
-Les inflorescences sont des racèmes (grappes) terminales, allongées, pendantes[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes du genre Wisteria sont des lianes à feuilles caduques. Elles peuvent croître jusqu'à vingt mètres de haut et dix mètres à l'horizontal. Le spécimen de Wisteria le plus étendu au monde a été planté en 1894 et se trouve à Sierra Madre dans le comté de Los Angeles (Californie ): il couvre une superficie de plus de 0,4 hectare et son poids est estimé à 250 tonnes.
+Selon les espèces, les Wisteria grimpent en s'enroulant autour de leur support (plantes volubiles) soit dans le sens des aiguilles d'une montre (par exemple Wisteria floribunda), soit dans le sens contraire (par exemple Wisteria sinensis).
+Les feuilles alternes, composées  imparipennées, présentent des folioles opposées, à marge entière, avec une foliole terminale à l'extrémité du rachis. Les stipules sont toujours présentes.
+Les inflorescences sont des racèmes (grappes) terminales, allongées, pendantes.
 Les fleurs, hermaphrodites, de couleur blanche, rose, pourpre ou bleue, sont de type papilionacé de 1,5 à 2,5 cm de long. La corolle est constituée d'un étendard, large, orbiculaire, réfléchi, glabre ou  portant à l’extérieur quelques trichomes à la base, avec deux callosités basales, et d'ailes libres, non soudées à la carène.
-Les étamines diadelphes sont au nombre de dix : une étamine vexillaire distincte des neuf autres ou légèrement connée au milieu de la gaine. L’ovaire stipité, présentant des trichomes, contient cinq à seize ovules[4].
-Le fruit est une gousse linéaire à oblancéolée, coriace, renflée au niveau des graines. Les graines, de une à six par gousse, sont réniformes à lenticulaires, sans strophiole[4].
+Les étamines diadelphes sont au nombre de dix : une étamine vexillaire distincte des neuf autres ou légèrement connée au milieu de la gaine. L’ovaire stipité, présentant des trichomes, contient cinq à seize ovules.
+Le fruit est une gousse linéaire à oblancéolée, coriace, renflée au niveau des graines. Les graines, de une à six par gousse, sont réniformes à lenticulaires, sans strophiole.
 </t>
         </is>
       </c>
@@ -586,25 +602,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Initialement classées dans le genre Glycine, certaines espèces telles que les deux sus-citées sont déplacées au début du XIXe siècle dans le nouveau genre Wisteria (les deux exemples devenant respectivement Wisteria floribunda (Willd.) DC., et Wisteria sinensis (Sims) DC). Cependant, on continua naturellement à parler de « Glycine », et les espèces ornementales deviennent des « glycines ». Les véritables espèces du genre Glycine restèrent méconnues du grand public et ne prirent pas le nom vernaculaire de « glycine ». C'est au début du XXe siècle qu'une révision taxinomique fit entrer une espèce dans le genre Glycine : Glycine max, le soja. Dès lors, un véritable décalage se fit entre langue courante et langue scientifique : le soja, comestible, est l'espèce la plus connue du genre Glycine, alors que les glycines, du genre Wisteria et justement pas du genre Glycine, ont des graines toxiques.
-Synonymes
-Selon GRIN            (2 mai 2019)[5] :
-Kraunhia Raf.
-Rehsonia Stritch
-Liste d'espèces
-Selon The Plant List            (2 mai 2019)[6] :
-Wisteria brachybotrys Siebold &amp; Zucc. ;
-Wisteria brevidentata Rehder
-Wisteria floribunda (Willd.) DC. Glycine floribonde, glycine du Japon ou glycine à longues grappes, originaire du Japon, introduite en Grande-Bretagne depuis 1820[7] ;
-Wisteria × formosa Rehder [W. floribunda (Willdenow) De Candolle × W. sinensis (Sims) Sweet, syn. W. floribunda ‘Domino’]. Hybride obtenu au Massachusetts en 1905[7] ;
-Wisteria frutescens (L.) Poir. - glycine d'Amérique ;
-Wisteria sinensis (Sims) Sweet - Glycine de Chine. Plante jusqu'à 10 m de hauteur, originaire de Chine, introduit en France par Dominique Parrenin au début du XVIIIe siècle et en Grande-Bretagne par le capitaine Welbauk en 1816[7] ;
-Wisteria ventusa Rehder &amp; Wils. ;
-Wisteria venusta Rehder &amp; E.H. Wilson - Glycine veloutée. Plante jusqu'à 10 m de hauteur, originaire de Chine, introduite du Japon en 1900[7] ;
-Wisteria villosa Rehder.
-La glycine du Japon, glycine d'été ou glycine rouge, mesurant jusqu'à 10 m de hauteur, originaire du Japon et de Corée[7], anciennement  Wisteria japonica, a été reclassée dans le genre Millettia, sous le nom de Millettia japonica (Siebold &amp; Zucc.) A.Gray.
 </t>
         </is>
       </c>
@@ -630,15 +632,20 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Croissance et multiplication</t>
+          <t>Taxinomie</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les glycines sont de croissance vigoureuse. Ainsi, un jeune sujet pourra voir sa croissance annuelle dépasser le mètre si les conditions sont optimales. De même, il est courant d'apercevoir des sujets âgés atteignant des volumes impressionnants. Un sujet issu de semis mettra, lui, une dizaine d'années avant de fleurir.
-La multiplication est plus facile à partir de boutures ou de marcottes d'exemplaires dont on connaît l'aptitude à fleurir.
-En moyenne la sénescence arrive à partir de 40-50 ans. Certains sujets centenaires sont mentionnés en Angleterre[8], en France [9] avec des troncs creux pouvant aller du mètre à 3,20 m de circonférence…
-</t>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GRIN            (2 mai 2019) :
+Kraunhia Raf.
+Rehsonia Stritch</t>
         </is>
       </c>
     </row>
@@ -663,15 +670,137 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (2 mai 2019) :
+Wisteria brachybotrys Siebold &amp; Zucc. ;
+Wisteria brevidentata Rehder
+Wisteria floribunda (Willd.) DC. Glycine floribonde, glycine du Japon ou glycine à longues grappes, originaire du Japon, introduite en Grande-Bretagne depuis 1820 ;
+Wisteria × formosa Rehder [W. floribunda (Willdenow) De Candolle × W. sinensis (Sims) Sweet, syn. W. floribunda ‘Domino’]. Hybride obtenu au Massachusetts en 1905 ;
+Wisteria frutescens (L.) Poir. - glycine d'Amérique ;
+Wisteria sinensis (Sims) Sweet - Glycine de Chine. Plante jusqu'à 10 m de hauteur, originaire de Chine, introduit en France par Dominique Parrenin au début du XVIIIe siècle et en Grande-Bretagne par le capitaine Welbauk en 1816 ;
+Wisteria ventusa Rehder &amp; Wils. ;
+Wisteria venusta Rehder &amp; E.H. Wilson - Glycine veloutée. Plante jusqu'à 10 m de hauteur, originaire de Chine, introduite du Japon en 1900 ;
+Wisteria villosa Rehder.
+La glycine du Japon, glycine d'été ou glycine rouge, mesurant jusqu'à 10 m de hauteur, originaire du Japon et de Corée, anciennement  Wisteria japonica, a été reclassée dans le genre Millettia, sous le nom de Millettia japonica (Siebold &amp; Zucc.) A.Gray.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Wisteria</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Wisteria</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Croissance et multiplication</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les glycines sont de croissance vigoureuse. Ainsi, un jeune sujet pourra voir sa croissance annuelle dépasser le mètre si les conditions sont optimales. De même, il est courant d'apercevoir des sujets âgés atteignant des volumes impressionnants. Un sujet issu de semis mettra, lui, une dizaine d'années avant de fleurir.
+La multiplication est plus facile à partir de boutures ou de marcottes d'exemplaires dont on connaît l'aptitude à fleurir.
+En moyenne la sénescence arrive à partir de 40-50 ans. Certains sujets centenaires sont mentionnés en Angleterre, en France  avec des troncs creux pouvant aller du mètre à 3,20 m de circonférence…
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Wisteria</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Wisteria</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Aspects culturels</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au Japon
-Dans le jeu de cartes traditionnel japonais Hanafuda, des branches de glycine sont représentées sur la série des 4 cartes du mois d'avril.
-Langage des fleurs
-Dans le langage des fleurs, la glycine symbolise la tendresse[10].
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Au Japon</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le jeu de cartes traditionnel japonais Hanafuda, des branches de glycine sont représentées sur la série des 4 cartes du mois d'avril.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Wisteria</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Wisteria</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Aspects culturels</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Langage des fleurs</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le langage des fleurs, la glycine symbolise la tendresse.
 </t>
         </is>
       </c>
